--- a/public/SheetJS.xlsx
+++ b/public/SheetJS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.sadhashivam\Project\chat-demo\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\chat-demo\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14CA5AB-C407-421C-98A6-D20A5A8F77A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82925C7B-37C0-4181-8D9C-D04F2C5ACA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
   <si>
     <t>Question</t>
   </si>
@@ -28,63 +28,332 @@
     <t>Answer</t>
   </si>
   <si>
-    <t>Resource Availability</t>
-  </si>
-  <si>
-    <t>Arun</t>
-  </si>
-  <si>
-    <t>Iniyazh</t>
-  </si>
-  <si>
-    <t>Arun Profile</t>
-  </si>
-  <si>
-    <t>Arun have 5 years of experience in Node JS.Worked in Various project</t>
-  </si>
-  <si>
-    <t>Krish Profile</t>
-  </si>
-  <si>
-    <t>Krish have 2 years experience</t>
-  </si>
-  <si>
-    <t>Iniyazh profile</t>
-  </si>
-  <si>
-    <t>She have 8 years of exp in angular</t>
-  </si>
-  <si>
-    <t>Raji</t>
-  </si>
-  <si>
-    <t>hai</t>
-  </si>
-  <si>
-    <t>sdfsdf</t>
-  </si>
-  <si>
-    <t>Dummy</t>
-  </si>
-  <si>
-    <t>xcvxcvcxv</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Dummy2</t>
+    <t>What is an example profile for a software engineer?</t>
+  </si>
+  <si>
+    <r>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Alex Johnson</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Position</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Senior Software Engineer</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Skills</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Java, Python, React, AWS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Employment History</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>- 2019–Present: Senior Software Engineer at Tech Solutions Inc. (Led cloud migration and built scalable applications).</t>
+  </si>
+  <si>
+    <t>- 2015–2019: Software Engineer at CodeWave (Developed and maintained web applications, collaborated with product teams).</t>
+  </si>
+  <si>
+    <t>What is an example profile for a project manager?</t>
+  </si>
+  <si>
+    <r>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Rachel Kim</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Position</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Project Manager</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Skills</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Agile, Scrum, Risk Management, Team Leadership</t>
+    </r>
+  </si>
+  <si>
+    <t>- 2021–Present: Project Manager at Visionary Digital (Managed digital transformation projects, optimized workflows, and led Agile teams).</t>
+  </si>
+  <si>
+    <t>- 2017–2021: Assistant Project Manager at InnovateWorks (Supported multiple projects, handled scheduling, tracked milestones).</t>
+  </si>
+  <si>
+    <t>What is an example profile for a data analyst?</t>
+  </si>
+  <si>
+    <r>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Samir Patel</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Position</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Data Analyst</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Skills</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: SQL, Python, Tableau, Data Mining</t>
+    </r>
+  </si>
+  <si>
+    <t>- 2020–Present: Data Analyst at FinTech Insights (Conducted data analysis, visualized trends, reported KPIs).</t>
+  </si>
+  <si>
+    <t>Who are the top candidates available for a software engineering position?</t>
+  </si>
+  <si>
+    <t>Alex Johnson</t>
+  </si>
+  <si>
+    <r>
+      <t>Skills</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Java, Python, React, AWS, Microservices</t>
+    </r>
+  </si>
+  <si>
+    <t>- 2019–Present: Senior Software Engineer at Tech Solutions Inc. (Led cloud migration projects and developed scalable applications).</t>
+  </si>
+  <si>
+    <r>
+      <t>Availability</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Full-Time</t>
+    </r>
+  </si>
+  <si>
+    <t>Who is available for a project management role?</t>
+  </si>
+  <si>
+    <t>Rachel Kim</t>
+  </si>
+  <si>
+    <t>- 2017–2021: Assistant Project Manager at InnovateWorks (Supported multiple projects, handled scheduling, and tracked milestones).</t>
+  </si>
+  <si>
+    <r>
+      <t>Availability</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Part-Time</t>
+    </r>
+  </si>
+  <si>
+    <t>Is there a candidate with strong data analysis skills?</t>
+  </si>
+  <si>
+    <t>Samir Patel</t>
+  </si>
+  <si>
+    <t>- 2020–Present: Data Analyst at FinTech Insights (Conducted data analysis, visualized trends, and reported KPIs).</t>
+  </si>
+  <si>
+    <t>- 2018–2020: Junior Data Analyst at MarketPulse (Assisted in data cleaning, created dashboards, supported senior analysts).</t>
+  </si>
+  <si>
+    <t>Are there any candidates with marketing expertise?</t>
+  </si>
+  <si>
+    <t>Jessica Lopez</t>
+  </si>
+  <si>
+    <r>
+      <t>Position</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Marketing Specialist</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Skills</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: SEO, Content Creation, Social Media Management, Google Analytics</t>
+    </r>
+  </si>
+  <si>
+    <t>- 2019–Present: Marketing Specialist at Bright Media (Developed and implemented SEO strategies, managed social media channels).</t>
+  </si>
+  <si>
+    <t>- 2016–2019: Content Marketing Associate at NextWave Digital (Created blog content, analyzed engagement metrics, coordinated marketing campaigns).</t>
+  </si>
+  <si>
+    <r>
+      <t>Availability</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Project-Based</t>
+    </r>
+  </si>
+  <si>
+    <t>Resource available</t>
+  </si>
+  <si>
+    <t>Priya</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -112,8 +381,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,113 +734,348 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.4140625" customWidth="1"/>
-    <col min="2" max="2" width="39.08203125" customWidth="1"/>
+    <col min="1" max="1" width="31.3984375" customWidth="1"/>
+    <col min="2" max="2" width="39.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="21" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
+      <c r="B22" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="23" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
+      <c r="B23" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
+      <c r="B24" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="4"/>
+      <c r="B25" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
+      <c r="B27" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="4"/>
+      <c r="B28" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="4"/>
+      <c r="B29" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="4"/>
+      <c r="B30" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="31" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="4"/>
+      <c r="B31" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="4"/>
+      <c r="B32" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="4"/>
+      <c r="B34" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="4"/>
+      <c r="B35" s="3" t="s">
         <v>18</v>
       </c>
     </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="4"/>
+      <c r="B36" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="4"/>
+      <c r="B37" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A38" s="4"/>
+      <c r="B38" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="4"/>
+      <c r="B39" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="4"/>
+      <c r="B41" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="4"/>
+      <c r="B42" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="4"/>
+      <c r="B43" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A44" s="4"/>
+      <c r="B44" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A45" s="4"/>
+      <c r="B45" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="4"/>
+      <c r="B46" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B48" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A40:A46"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A25"/>
+    <mergeCell ref="A26:A32"/>
+    <mergeCell ref="A33:A39"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/SheetJS.xlsx
+++ b/public/SheetJS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\chat-demo\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82925C7B-37C0-4181-8D9C-D04F2C5ACA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D049DF9B-16E0-4564-A62D-C41A025E9329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -736,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
